--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Windsor_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Windsor_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyrapuano/Desktop/VZA 2024/Editor Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0286E9-58AD-CA4C-AFB9-3043078035D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DCA52-5457-B143-B359-A09A304642D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="146">
   <si>
     <t>County</t>
   </si>
@@ -362,12 +362,6 @@
   </si>
   <si>
     <t>Lily Rapuano</t>
-  </si>
-  <si>
-    <t>04.11.2023</t>
-  </si>
-  <si>
-    <t>04.11.2015</t>
   </si>
   <si>
     <t>Resource (RES)</t>
@@ -537,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -546,536 +540,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="214">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="139">
     <dxf>
       <fill>
         <patternFill>
@@ -2359,13 +1829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V134" sqref="V134"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2391,11 +1861,10 @@
     <col min="19" max="19" width="14.83203125" customWidth="1"/>
     <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.83203125" customWidth="1"/>
-    <col min="22" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2443,11 +1912,8 @@
       <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +1962,7 @@
       </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2545,56 +2011,56 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +2109,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2158,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +2207,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2790,7 +2256,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2839,7 +2305,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2354,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2937,7 +2403,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2986,7 +2452,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +2501,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +2550,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3133,7 +2599,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3182,7 +2648,7 @@
       </c>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3231,7 +2697,7 @@
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3280,18 +2746,18 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I19" s="1"/>
       <c r="K19" s="1"/>
@@ -3300,12 +2766,12 @@
       <c r="Q19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3331,16 +2797,13 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -3358,7 +2821,7 @@
         <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
@@ -3397,7 +2860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3420,7 +2883,7 @@
         <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
@@ -3456,7 +2919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3479,7 +2942,7 @@
         <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>82</v>
@@ -3515,7 +2978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3538,7 +3001,7 @@
         <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
@@ -3574,12 +3037,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
         <v>84</v>
@@ -3597,7 +3060,7 @@
         <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
@@ -3636,7 +3099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3650,7 +3113,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
@@ -3689,7 +3152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3727,7 +3190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3789,7 +3252,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3827,7 +3290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3889,7 +3352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3965,7 +3428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -3991,11 +3454,8 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4035,7 +3495,7 @@
       <c r="U34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4075,12 +3535,12 @@
       <c r="U35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
@@ -4098,7 +3558,7 @@
         <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
         <v>82</v>
@@ -4137,12 +3597,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
@@ -4160,7 +3620,7 @@
         <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
@@ -4199,7 +3659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4222,7 +3682,7 @@
         <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
@@ -4258,7 +3718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4281,7 +3741,7 @@
         <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
         <v>82</v>
@@ -4317,7 +3777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -4340,7 +3800,7 @@
         <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
         <v>82</v>
@@ -4376,12 +3836,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -4399,7 +3859,7 @@
         <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
         <v>82</v>
@@ -4438,7 +3898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -4452,7 +3912,7 @@
         <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
         <v>82</v>
@@ -4491,7 +3951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -4529,7 +3989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4591,7 +4051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4653,7 +4113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4691,7 +4151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4753,7 +4213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -4791,7 +4251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -4829,7 +4289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -4855,11 +4315,8 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +4344,7 @@
       <c r="U51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -4915,7 +4372,7 @@
       <c r="U52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4929,7 +4386,7 @@
         <v>93</v>
       </c>
       <c r="H53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I53" t="s">
         <v>82</v>
@@ -4965,7 +4422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4979,7 +4436,7 @@
         <v>90</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
         <v>82</v>
@@ -5015,7 +4472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5029,7 +4486,7 @@
         <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I55" t="s">
         <v>82</v>
@@ -5062,7 +4519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -5076,7 +4533,7 @@
         <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I56" t="s">
         <v>82</v>
@@ -5109,7 +4566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -5123,7 +4580,7 @@
         <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I57" t="s">
         <v>82</v>
@@ -5156,7 +4613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -5170,7 +4627,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I58" t="s">
         <v>82</v>
@@ -5206,7 +4663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -5220,7 +4677,7 @@
         <v>69</v>
       </c>
       <c r="H59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
         <v>82</v>
@@ -5256,7 +4713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -5294,7 +4751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -5344,7 +4801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -5394,7 +4851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -5422,7 +4879,7 @@
       <c r="U63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -5450,7 +4907,7 @@
       <c r="U64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -5488,7 +4945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5538,7 +4995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -5576,7 +5033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5614,7 +5071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -5652,7 +5109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -5700,11 +5157,8 @@
       <c r="W70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -5732,7 +5186,7 @@
       <c r="U71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -5760,7 +5214,7 @@
       <c r="U72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -5774,7 +5228,7 @@
         <v>93</v>
       </c>
       <c r="H73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I73" t="s">
         <v>82</v>
@@ -5810,7 +5264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -5824,7 +5278,7 @@
         <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I74" t="s">
         <v>90</v>
@@ -5860,7 +5314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5874,7 +5328,7 @@
         <v>84</v>
       </c>
       <c r="H75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I75" t="s">
         <v>82</v>
@@ -5907,7 +5361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -5921,7 +5375,7 @@
         <v>84</v>
       </c>
       <c r="H76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I76" t="s">
         <v>82</v>
@@ -5954,7 +5408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -5968,7 +5422,7 @@
         <v>84</v>
       </c>
       <c r="H77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I77" t="s">
         <v>82</v>
@@ -6001,7 +5455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -6015,7 +5469,7 @@
         <v>84</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I78" t="s">
         <v>82</v>
@@ -6051,7 +5505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -6065,7 +5519,7 @@
         <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I79" t="s">
         <v>82</v>
@@ -6101,7 +5555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -6139,7 +5593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -6189,7 +5643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -6239,7 +5693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -6267,7 +5721,7 @@
       <c r="U83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -6295,7 +5749,7 @@
       <c r="U84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -6333,7 +5787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -6383,7 +5837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -6421,7 +5875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -6459,7 +5913,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -6497,7 +5951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -6535,7 +5989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -6583,11 +6037,8 @@
       <c r="W91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -6615,7 +6066,7 @@
       <c r="U92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -6643,7 +6094,7 @@
       <c r="U93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -6657,7 +6108,7 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I94" t="s">
         <v>82</v>
@@ -6693,7 +6144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -6707,7 +6158,7 @@
         <v>90</v>
       </c>
       <c r="H95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
         <v>82</v>
@@ -6743,7 +6194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -6757,7 +6208,7 @@
         <v>84</v>
       </c>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I96" t="s">
         <v>82</v>
@@ -6790,7 +6241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -6804,7 +6255,7 @@
         <v>84</v>
       </c>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I97" t="s">
         <v>82</v>
@@ -6837,7 +6288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -6851,7 +6302,7 @@
         <v>84</v>
       </c>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
         <v>82</v>
@@ -6884,7 +6335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -6898,7 +6349,7 @@
         <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I99" t="s">
         <v>82</v>
@@ -6934,7 +6385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -6948,7 +6399,7 @@
         <v>69</v>
       </c>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I100" t="s">
         <v>82</v>
@@ -6984,7 +6435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -7022,7 +6473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -7072,7 +6523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -7122,7 +6573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -7150,7 +6601,7 @@
       <c r="U104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -7178,7 +6629,7 @@
       <c r="U105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -7216,7 +6667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -7266,7 +6717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -7304,7 +6755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -7342,7 +6793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -7380,7 +6831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -7418,7 +6869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -7464,11 +6915,8 @@
       </c>
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
@@ -7494,11 +6942,8 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -7514,7 +6959,7 @@
       <c r="U114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -7552,7 +6997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -7590,7 +7035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -7628,7 +7073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -7666,7 +7111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -7704,7 +7149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -7742,7 +7187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -7780,7 +7225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -7828,11 +7273,8 @@
       <c r="W122" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -7875,7 +7317,7 @@
       <c r="U123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -7918,7 +7360,7 @@
       <c r="U124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -7961,7 +7403,7 @@
       <c r="U125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -8004,12 +7446,12 @@
       <c r="U126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>93</v>
@@ -8027,7 +7469,7 @@
         <v>93</v>
       </c>
       <c r="H127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I127" t="s">
         <v>82</v>
@@ -8069,7 +7511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -8134,7 +7576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -8177,7 +7619,7 @@
       <c r="U129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -8242,7 +7684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -8280,7 +7722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -8318,7 +7760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -8366,11 +7808,8 @@
       <c r="W133" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -8413,7 +7852,7 @@
       <c r="U134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -8454,7 +7893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -8495,7 +7934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -8511,7 +7950,7 @@
       <c r="U137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -8559,11 +7998,8 @@
       <c r="W138" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -8579,7 +8015,7 @@
       <c r="U139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -8595,7 +8031,7 @@
       <c r="U140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -8611,7 +8047,7 @@
       <c r="U141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -8627,7 +8063,7 @@
       <c r="U142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -8675,11 +8111,8 @@
       <c r="W143" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -8719,711 +8152,671 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B113:Z113"/>
+    <mergeCell ref="B113:W113"/>
   </mergeCells>
-  <conditionalFormatting sqref="B34:B35 D34:D35 F34:F35 H34:H35 J34:J37 L34:L49 B36:E49 G36:G49 K36:K49 F48:F49 H37 I36:I49 H43:H49 J43:J49 N34:N49 P34:P49 R34:R49 T34:T49 V34:V49 X34:Z49">
-    <cfRule type="expression" dxfId="213" priority="339">
+  <conditionalFormatting sqref="B34:B35 D34:D35 F34:F35 H34:H35 J34:J37 L34:L49 N34:N49 P34:P49 R34:R49 T34:T49 V34:V49 B36:E49 G36:G49 I36:I49 K36:K49 H37 H43:H49 J43:J49 F48:F49">
+    <cfRule type="expression" dxfId="138" priority="339">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52 D51:D52 F51:F69 L51:L69 B53:E62 G53:G62 B63:B64 D63:D64 B65:E69 K65:K69 G65:I69 H51:H52 H54:I54 H60:H63 I60:I62 N51:N69 P51:P69 R51:R69 T51:T69 V51:V69 X51:Z69">
-    <cfRule type="expression" dxfId="212" priority="338" stopIfTrue="1">
+  <conditionalFormatting sqref="B51:B52 D51:D52 H51:H52 F51:F69 L51:L69 N51:N69 P51:P69 R51:R69 T51:T69 V51:V69 B53:E62 G53:G62 H54:I54 I60:I62 H60:H63 B63:B64 D63:D64 B65:E69 G65:I69 K65:K69">
+    <cfRule type="expression" dxfId="137" priority="338" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B89 D71:D90 F71:F90 H74 L71:L90 N71:N90 P71:P90 R71:R90 T71:T90 V71:V90 B90:C90 E90 K90 G90:I90 X71:Z90">
-    <cfRule type="expression" dxfId="211" priority="337">
+  <conditionalFormatting sqref="B71:B89 D71:D90 F71:F90 L71:L90 N71:N90 P71:P90 R71:R90 T71:T90 V71:V90 H74 B90:C90 E90 G90:I90 K90">
+    <cfRule type="expression" dxfId="136" priority="337">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B111 D92:D111 F92:F111 L92:L95 P92:P111 R92:R111 T92:T111 V92:V111 X92:Z111">
-    <cfRule type="expression" dxfId="210" priority="336" stopIfTrue="1">
+  <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:V121">
+    <cfRule type="expression" dxfId="135" priority="335" stopIfTrue="1">
+      <formula>OR(B$17="", B$17="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 P134:P137 R134:R137 T134:T137 V134:V137">
+    <cfRule type="expression" dxfId="134" priority="333" stopIfTrue="1">
+      <formula>OR(B$18="Prohibited", B$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:W32">
+    <cfRule type="expression" dxfId="133" priority="9" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C82 C85:C89">
+    <cfRule type="expression" dxfId="132" priority="332" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:C103 C106:C110">
+    <cfRule type="expression" dxfId="131" priority="330" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="expression" dxfId="130" priority="331">
+      <formula>OR(C$14="", C$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:C120">
+    <cfRule type="expression" dxfId="129" priority="323" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="expression" dxfId="128" priority="324">
+      <formula>OR(C$14="", C$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C128">
+    <cfRule type="expression" dxfId="127" priority="321" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130:C132">
+    <cfRule type="expression" dxfId="126" priority="318" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135:C136">
+    <cfRule type="expression" dxfId="125" priority="316" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:E82 E85:E89">
+    <cfRule type="expression" dxfId="124" priority="162" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E103 E106:E110">
+    <cfRule type="expression" dxfId="123" priority="160" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="expression" dxfId="122" priority="161">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E120">
+    <cfRule type="expression" dxfId="121" priority="158" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" dxfId="120" priority="159">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E128">
+    <cfRule type="expression" dxfId="119" priority="157" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="118" priority="156" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:E136">
+    <cfRule type="expression" dxfId="117" priority="155" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F47">
+    <cfRule type="expression" dxfId="116" priority="130" stopIfTrue="1">
+      <formula>OR(F$11="", F$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:G82">
+    <cfRule type="expression" dxfId="115" priority="154" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G103">
+    <cfRule type="expression" dxfId="114" priority="152" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:G120">
+    <cfRule type="expression" dxfId="113" priority="150" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="expression" dxfId="112" priority="151">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G128">
+    <cfRule type="expression" dxfId="111" priority="129" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130:G132">
+    <cfRule type="expression" dxfId="110" priority="128" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G136">
+    <cfRule type="expression" dxfId="109" priority="147" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="108" priority="127" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
+    <cfRule type="expression" dxfId="107" priority="126" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="106" priority="124" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H59">
+    <cfRule type="expression" dxfId="105" priority="122" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H72">
+    <cfRule type="expression" dxfId="104" priority="121" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="expression" dxfId="103" priority="120" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H79">
+    <cfRule type="expression" dxfId="102" priority="117" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92:H93">
+    <cfRule type="expression" dxfId="101" priority="114" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="100" priority="113" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95 G111:I111">
+    <cfRule type="expression" dxfId="99" priority="116">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:H100">
+    <cfRule type="expression" dxfId="98" priority="110" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123:H126 B123:B132 D123:D132 F123:F132 J123:J132 L123:L132 N123:N132 P123:P132 R123:R132 T123:T132 V123:V132 H128:H132">
+    <cfRule type="expression" dxfId="97" priority="334">
+      <formula>OR(B$16="", B$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="96" priority="107" stopIfTrue="1">
+      <formula>OR(H$11="", H$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="95" priority="125">
+      <formula>OR(I$12="", I$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I59">
+    <cfRule type="expression" dxfId="94" priority="123">
+      <formula>OR(I$12="", I$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I74">
+    <cfRule type="expression" dxfId="93" priority="146" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75:I79">
+    <cfRule type="expression" dxfId="92" priority="118">
+      <formula>OR(I$12="", I$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80:I82 H80:H83 G85:I89">
+    <cfRule type="expression" dxfId="91" priority="119" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I95">
+    <cfRule type="expression" dxfId="90" priority="115" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96:I100">
+    <cfRule type="expression" dxfId="89" priority="111">
+      <formula>OR(I$12="", I$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101:I103 H101:H104 G106:I110">
+    <cfRule type="expression" dxfId="88" priority="112" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:I120">
+    <cfRule type="expression" dxfId="87" priority="142" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121">
+    <cfRule type="expression" dxfId="86" priority="143">
+      <formula>OR(I$14="", I$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127:I128">
+    <cfRule type="expression" dxfId="85" priority="109" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130:I132">
+    <cfRule type="expression" dxfId="84" priority="108" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="expression" dxfId="83" priority="139" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J42">
+    <cfRule type="expression" dxfId="82" priority="106" stopIfTrue="1">
+      <formula>OR(J$11="", J$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J54 K53:K62 J60:J62">
+    <cfRule type="expression" dxfId="81" priority="105">
+      <formula>OR(J$12="", J$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J59">
+    <cfRule type="expression" dxfId="80" priority="104" stopIfTrue="1">
+      <formula>OR(J$11="", J$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J69">
+    <cfRule type="expression" dxfId="79" priority="341" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J74 K73:K82 J80:J82">
+    <cfRule type="expression" dxfId="78" priority="101">
+      <formula>OR(J$12="", J$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J79">
+    <cfRule type="expression" dxfId="77" priority="100" stopIfTrue="1">
+      <formula>OR(J$11="", J$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:J89">
+    <cfRule type="expression" dxfId="76" priority="103" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J90">
+    <cfRule type="expression" dxfId="75" priority="342">
+      <formula>OR(J$13="", J$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:J95 K94:K103 J101:J103">
+    <cfRule type="expression" dxfId="74" priority="95">
+      <formula>OR(J$12="", J$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96:J100">
+    <cfRule type="expression" dxfId="73" priority="94" stopIfTrue="1">
+      <formula>OR(J$11="", J$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J110">
+    <cfRule type="expression" dxfId="72" priority="97" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111">
+    <cfRule type="expression" dxfId="71" priority="99">
+      <formula>OR(J$13="", J$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:K89">
+    <cfRule type="expression" dxfId="70" priority="102" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:K110">
+    <cfRule type="expression" dxfId="69" priority="96" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111">
+    <cfRule type="expression" dxfId="68" priority="98">
+      <formula>OR(K$14="", K$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:K120">
+    <cfRule type="expression" dxfId="67" priority="134" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121">
+    <cfRule type="expression" dxfId="66" priority="135">
+      <formula>OR(K$14="", K$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:K128">
+    <cfRule type="expression" dxfId="65" priority="133" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K130:K132">
+    <cfRule type="expression" dxfId="64" priority="132" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135:K136">
+    <cfRule type="expression" dxfId="63" priority="131" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L92:L95 B92:B111 D92:D111 F92:F111 P92:P111 R92:R111 T92:T111 V92:V111">
+    <cfRule type="expression" dxfId="62" priority="336" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:L32 N21:N32 P21:P32 R21:R32 T21:T32 V21:V32 X21:Z32">
-    <cfRule type="expression" dxfId="209" priority="340" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73:C82 C85:C89">
-    <cfRule type="expression" dxfId="208" priority="332" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94:C103 C106:C110">
-    <cfRule type="expression" dxfId="207" priority="330" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="206" priority="331">
-      <formula>OR(C$14="", C$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="205" priority="323" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="204" priority="324">
-      <formula>OR(C$14="", C$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="203" priority="321" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="202" priority="318" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="201" priority="316" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E82 E85:E89">
-    <cfRule type="expression" dxfId="200" priority="162" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E103 E106:E110">
-    <cfRule type="expression" dxfId="199" priority="160" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="198" priority="161">
-      <formula>OR(E$14="", E$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="197" priority="158" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="196" priority="159">
-      <formula>OR(E$14="", E$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="195" priority="157" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="194" priority="156" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="193" priority="155" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73:G82 G85:G89">
-    <cfRule type="expression" dxfId="192" priority="154" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G103 G106:G110">
-    <cfRule type="expression" dxfId="191" priority="152" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="190" priority="153">
-      <formula>OR(G$14="", G$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="189" priority="150" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="188" priority="151">
-      <formula>OR(G$14="", G$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="187" priority="147" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:I74">
-    <cfRule type="expression" dxfId="186" priority="146" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="185" priority="142" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="184" priority="143">
-      <formula>OR(I$14="", I$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I135:I136">
-    <cfRule type="expression" dxfId="183" priority="139" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:K120">
-    <cfRule type="expression" dxfId="179" priority="134" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K121">
-    <cfRule type="expression" dxfId="178" priority="135">
-      <formula>OR(K$14="", K$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K127:K128">
-    <cfRule type="expression" dxfId="177" priority="133" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K130:K132">
-    <cfRule type="expression" dxfId="176" priority="132" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K135:K136">
-    <cfRule type="expression" dxfId="175" priority="131" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:V121 X114:Z121">
-    <cfRule type="expression" dxfId="171" priority="335" stopIfTrue="1">
-      <formula>OR(B$17="", B$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:B132 T123:T132 V123:V132 D123:D132 F123:F132 H123:H126 H128:H132 J123:J132 X123:Z132 L123:L132 N123:N132 P123:P132 R123:R132">
-    <cfRule type="expression" dxfId="168" priority="334">
-      <formula>OR(B$16="", B$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 P134:P137 R134:R137 T134:T137 V134:V137 X134:Z137">
-    <cfRule type="expression" dxfId="165" priority="333" stopIfTrue="1">
-      <formula>OR(B$18="Prohibited", B$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F47">
-    <cfRule type="expression" dxfId="131" priority="130" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="130" priority="129" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="129" priority="128" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="128" priority="127" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42">
-    <cfRule type="expression" dxfId="127" priority="126" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="126" priority="125">
-      <formula>OR(I$12="", I$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="125" priority="124" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I59">
-    <cfRule type="expression" dxfId="124" priority="123">
-      <formula>OR(I$12="", I$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H59">
-    <cfRule type="expression" dxfId="123" priority="122" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H72">
-    <cfRule type="expression" dxfId="122" priority="121" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="121" priority="120" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85:I89 H80:H83 I80:I82">
-    <cfRule type="expression" dxfId="120" priority="119" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:I79">
-    <cfRule type="expression" dxfId="119" priority="118">
-      <formula>OR(I$12="", I$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H79">
-    <cfRule type="expression" dxfId="118" priority="117" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95 H111:I111">
-    <cfRule type="expression" dxfId="117" priority="116">
-      <formula>OR(H$14="", H$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
-    <cfRule type="expression" dxfId="116" priority="115" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H93">
-    <cfRule type="expression" dxfId="115" priority="114" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" dxfId="114" priority="113" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I110 H101:H104 I101:I103">
-    <cfRule type="expression" dxfId="113" priority="112" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I100">
-    <cfRule type="expression" dxfId="112" priority="111">
-      <formula>OR(I$12="", I$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H100">
-    <cfRule type="expression" dxfId="111" priority="110" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="110" priority="109" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="109" priority="108" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="108" priority="107" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J69">
-    <cfRule type="expression" dxfId="107" priority="341" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90">
-    <cfRule type="expression" dxfId="106" priority="342">
-      <formula>OR(J$13="", J$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J42">
-    <cfRule type="expression" dxfId="105" priority="106" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J54 K53:K62 J60:J62">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>OR(J$12="", J$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J59">
-    <cfRule type="expression" dxfId="103" priority="104" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K89">
-    <cfRule type="expression" dxfId="102" priority="102" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:J89">
-    <cfRule type="expression" dxfId="101" priority="103" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:J74 K73:K82 J80:J82">
-    <cfRule type="expression" dxfId="100" priority="101">
-      <formula>OR(J$12="", J$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:J79">
-    <cfRule type="expression" dxfId="99" priority="100" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111">
-    <cfRule type="expression" dxfId="98" priority="98">
-      <formula>OR(K$14="", K$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111">
-    <cfRule type="expression" dxfId="97" priority="99">
-      <formula>OR(J$13="", J$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:K110">
-    <cfRule type="expression" dxfId="96" priority="96" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J110">
-    <cfRule type="expression" dxfId="95" priority="97" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J95 K94:K103 J101:J103">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>OR(J$12="", J$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:J100">
-    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
+  <conditionalFormatting sqref="L96:L111">
+    <cfRule type="expression" dxfId="61" priority="21">
+      <formula>OR(L$14="", L$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36:M49">
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="60" priority="92">
       <formula>OR(M$12="", M$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:M62 M65:M69">
-    <cfRule type="expression" dxfId="91" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="91" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M73:M82 M85:M89">
+    <cfRule type="expression" dxfId="58" priority="89" stopIfTrue="1">
+      <formula>OR(M$13="", M$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M90">
-    <cfRule type="expression" dxfId="90" priority="90">
+    <cfRule type="expression" dxfId="57" priority="90">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M32">
-    <cfRule type="expression" dxfId="89" priority="93" stopIfTrue="1">
-      <formula>OR(M$11="", M$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M73:M82 M85:M89">
-    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+  <conditionalFormatting sqref="M94:M103 M106:M110">
+    <cfRule type="expression" dxfId="56" priority="19" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M94:M95">
-    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+  <conditionalFormatting sqref="M111">
+    <cfRule type="expression" dxfId="55" priority="20">
+      <formula>OR(M$14="", M$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115:M120">
+    <cfRule type="expression" dxfId="54" priority="85" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M115:M120">
-    <cfRule type="expression" dxfId="85" priority="85" stopIfTrue="1">
+  <conditionalFormatting sqref="M121">
+    <cfRule type="expression" dxfId="53" priority="86">
+      <formula>OR(M$14="", M$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127:M128">
+    <cfRule type="expression" dxfId="52" priority="84" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M121">
-    <cfRule type="expression" dxfId="84" priority="86">
-      <formula>OR(M$14="", M$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M127:M128">
-    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
+  <conditionalFormatting sqref="M130:M132">
+    <cfRule type="expression" dxfId="51" priority="83" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M130:M132">
-    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
+  <conditionalFormatting sqref="M135:M136">
+    <cfRule type="expression" dxfId="50" priority="82" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M135:M136">
-    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
-      <formula>OR(M$13="", M$13="Prohibited")</formula>
+  <conditionalFormatting sqref="N92:N111">
+    <cfRule type="expression" dxfId="49" priority="18">
+      <formula>OR(N$14="", N$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36:O49">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>OR(O$12="", O$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:O62 O65:O69">
+    <cfRule type="expression" dxfId="47" priority="59" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O73:O82 O85:O89">
+    <cfRule type="expression" dxfId="46" priority="57" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O90">
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>OR(O$14="", O$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O94:O103 O106:O110">
+    <cfRule type="expression" dxfId="44" priority="16" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O111">
+    <cfRule type="expression" dxfId="43" priority="17">
+      <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115:O120">
-    <cfRule type="expression" dxfId="80" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="80" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="41" priority="81">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O127:O128">
+    <cfRule type="expression" dxfId="40" priority="15" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O130:O132">
+    <cfRule type="expression" dxfId="39" priority="14" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O135:O136">
-    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="77" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q36:Q49">
+    <cfRule type="expression" dxfId="37" priority="53">
+      <formula>OR(Q$12="", Q$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53:Q62 Q65:Q69">
+    <cfRule type="expression" dxfId="36" priority="52" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q82 Q85:Q89">
+    <cfRule type="expression" dxfId="35" priority="50" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q90">
+    <cfRule type="expression" dxfId="34" priority="51">
+      <formula>OR(Q$14="", Q$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q94:Q103 Q106:Q110">
+    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q111">
+    <cfRule type="expression" dxfId="32" priority="49">
+      <formula>OR(Q$14="", Q$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q115:Q120">
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="75" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q121">
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="30" priority="76">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q127:Q128">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q130:Q132">
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q135:Q136">
-    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="72" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S36:S49">
+    <cfRule type="expression" dxfId="26" priority="46">
+      <formula>OR(S$12="", S$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:S62 S65:S69">
+    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:S82 S85:S89">
+    <cfRule type="expression" dxfId="24" priority="43" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S90">
+    <cfRule type="expression" dxfId="23" priority="44">
+      <formula>OR(S$14="", S$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S94:S103 S106:S110">
+    <cfRule type="expression" dxfId="22" priority="41" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S111">
+    <cfRule type="expression" dxfId="21" priority="42">
+      <formula>OR(S$14="", S$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S115:S120">
-    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="70" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S121">
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="19" priority="71">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S127:S128">
+    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S130:S132">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S135:S136">
-    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="67" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U36:U49">
+    <cfRule type="expression" dxfId="15" priority="39">
+      <formula>OR(U$12="", U$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U53:U62 U65:U69">
+    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
+      <formula>OR(U$13="", U$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U82 U85:U90">
+    <cfRule type="expression" dxfId="13" priority="36" stopIfTrue="1">
+      <formula>OR(U$13="", U$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U94:U103 U106:U111">
+    <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
+      <formula>OR(U$13="", U$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U115:U121">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="65" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127:U128">
-    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="64" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130:U132">
-    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="63" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U135:U136">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="62" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O36:O49">
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>OR(O$12="", O$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O53:O62 O65:O69">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
-      <formula>OR(O$13="", O$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O90">
-    <cfRule type="expression" dxfId="58" priority="58">
-      <formula>OR(O$14="", O$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O32">
-    <cfRule type="expression" dxfId="57" priority="61" stopIfTrue="1">
-      <formula>OR(O$11="", O$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O73:O82 O85:O89">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
-      <formula>OR(O$13="", O$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:Q49">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>OR(Q$12="", Q$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q53:Q62 Q65:Q69">
-    <cfRule type="expression" dxfId="52" priority="52" stopIfTrue="1">
-      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q90">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>OR(Q$14="", Q$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:Q32">
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
-      <formula>OR(Q$11="", Q$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q73:Q82 Q85:Q89">
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q94:Q103 Q106:Q110">
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
-      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q111">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>OR(Q$14="", Q$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:S49">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>OR(S$12="", S$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S53:S62 S65:S69">
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
-      <formula>OR(S$13="", S$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S90">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>OR(S$14="", S$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21:S32">
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
-      <formula>OR(S$11="", S$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S73:S82 S85:S89">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
-      <formula>OR(S$13="", S$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S94:S103 S106:S110">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
-      <formula>OR(S$13="", S$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S111">
-    <cfRule type="expression" dxfId="40" priority="42">
-      <formula>OR(S$14="", S$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U36:U49">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>OR(U$12="", U$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U53:U62 U65:U69">
-    <cfRule type="expression" dxfId="9" priority="38" stopIfTrue="1">
-      <formula>OR(U$13="", U$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21:U32">
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
-      <formula>OR(U$11="", U$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U73:U82 U85:U90">
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
-      <formula>OR(U$13="", U$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U94:U103 U106:U111">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
-      <formula>OR(U$13="", U$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L96:L111">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>OR(L$14="", L$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>OR(M$14="", M$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M96:M103 M106:M110">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
-      <formula>OR(M$13="", M$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N111">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>OR(N$14="", N$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O111">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>OR(O$14="", O$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O94:O103 O106:O110">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
-      <formula>OR(O$13="", O$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O127:O128">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
-      <formula>OR(O$13="", O$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O130:O132">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
-      <formula>OR(O$13="", O$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q130:Q132">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S127:S128">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>OR(S$13="", S$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S130:S132">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
-      <formula>OR(S$13="", S$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W36:W49">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR(W$12="", W$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W53:W62 W65:W69">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21:W32">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>OR(W$11="", W$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W73:W82 W85:W90">
@@ -9459,102 +8852,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CD1DA-2892-CB4D-9879-60383C06A898}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8816A34B-E77E-5944-BDBC-E23E3CE3C390}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J13 B13:I14 K13:AA14 B15:AA15 B12:AA12 B11:AE11</xm:sqref>
+          <xm:sqref>J13 B13:I14 B11:AB11 B12:X12 B15:X15 K13:X14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{390FA64D-BC39-BB40-8BA0-1E011160B117}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B768709-33DF-A84B-933F-AFC4742A6E31}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B34:B35 C104:C105 C71:C72 C83:C84 C92:C93 B63:G64 L51:L52 I63:L64 T139 T141:T142 T134 N51:N52 R134 R139 N63:N64 P63:P64 P141:P142 X63:Z64 R141:R142 P51:P52 R51:R52 P134 P139 R63:R64 T63:T64 X51:Z52 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 X34:Z35 H104 T34:T35 X134:Z134 E92:E93 E104:E105 E71:E72 E83:E84 G92:J93 G104:G105 G83:G84 I83:K84 H83 G71:J72 X139:Z139 B5:AA7 H63 I104:K105 B51:J52 B141:L142 B134:L134 B139:L139 N139 N141:N142 N134 T51:T52 V51:V52 V63:V64 V34:V35 B9:AA10 V139 V134 V141:V142 X141:Z142</xm:sqref>
+          <xm:sqref>B34:B35 C104:C105 C71:C72 C83:C84 C92:C93 B63:G64 L51:L52 I63:L64 T139 T141:T142 T134 N51:N52 R134 R139 N63:N64 P63:P64 P141:P142 R141:R142 P51:P52 R51:R52 P134 P139 R63:R64 T63:T64 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 H104 T34:T35 E92:E93 E104:E105 E71:E72 E83:E84 G92:J93 G104:G105 G83:G84 I83:K84 H83 G71:J72 H63 I104:K105 B51:J52 B141:L142 B134:L134 B139:L139 N139 N141:N142 N134 T51:T52 V51:V52 V63:V64 V34:V35 V139 V134 V141:V142 B9:X10 B5:X7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9CD4731-5D38-314E-829D-4358262BBF3E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9EC0D19-7CEF-A44D-B97F-66D84EEDE690}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B20 B16:B18 C16:C20 D16:D18 D20 T16:T18 F16:F18 F20 E16:E20 H16:H18 H20 G16:G20 J16:J18 J20 I16:I20 L16:L18 L20 M16:M20 N16:N18 N20 O16:O20 P16:P18 P20 Q16:Q20 R16:R18 R20 S16:S20 K16:K20 T20 U16:AA20</xm:sqref>
+          <xm:sqref>B20 B16:B18 C16:C20 D16:D18 D20 T16:T18 F16:F18 F20 E16:E20 H16:H18 H20 G16:G20 J16:J18 J20 I16:I20 L16:L18 L20 M16:M20 N16:N18 N20 O16:O20 P16:P18 P20 Q16:Q20 R16:R18 R20 S16:S20 K16:K20 T20 U16:X20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D987583-DF19-C847-98CE-62D957C6A111}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CFA882D-65C3-F24F-8434-19E001416AAD}">
           <x14:formula1>
             <xm:f>Sheet2!$B$8:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 K53 K73 K115 K127 K94 K21 K36 I127 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 K135 G135 I21 I36 G127 I73 I53 I115 I94 I135</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A58B297-4176-C142-BFE2-5FAE35D5A495}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4C821BD-0E67-A047-AC14-DB9CEFD2C673}">
           <x14:formula1>
             <xm:f>Sheet2!$C$8:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 K22:K25 K30 K38:K41 K47 K66 I96:I99 I107 K55:K58 K107 K96:K99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 K86 I30 I22:I26 I47 I66 I38:I41 K75:K78 I55:I58 I86 I75:I78</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38F82449-65ED-2B46-894E-2362DD296097}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971E6BB6-290C-6844-A41C-18A1345A937A}">
           <x14:formula1>
             <xm:f>Sheet2!$D$8:$D$11</xm:f>
           </x14:formula1>
           <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 K42:K43 I130 K59:K60 K79:K80 K100:K101 K26:K27 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 K130 G130 I42:I43 I27 I59:I60 I79:I80 I100:I101</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ED10EF8-8297-B742-B7FC-EF775037FBAF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0095F2B6-EB90-7B47-9B8B-24AB462697A7}">
           <x14:formula1>
             <xm:f>Sheet2!$F$8:$F$11</xm:f>
           </x14:formula1>
           <xm:sqref>C29 C46 C65 C85 C106 K29 K46 K65 I106 K106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 K85 I85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56AE27B-F1BB-6F4F-8428-3E273C820298}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99A5D70C-71FB-DF46-B4EA-C7223B61F016}">
           <x14:formula1>
             <xm:f>Sheet2!$G$8:$G$11</xm:f>
           </x14:formula1>
           <xm:sqref>C31 C48 C67 C87 C108 K31 K48 K67 I108 K108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 K87 I87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{580E3213-A5C6-A842-910E-3BBA6BCAD3A3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D25318B8-5A02-C54B-B3AB-4B1CC36CD316}">
           <x14:formula1>
             <xm:f>Sheet2!$H$8:$H$11</xm:f>
           </x14:formula1>
           <xm:sqref>C32 C49 C68 C88 C109 C119 C131 K68 I131 K88 K119 K109 K32 K49 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 K131 I32 I49 I68 G131 I88 I119 I109</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61314F3-A7E4-7D44-BD9C-12BB83BBC7D6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDC0C35A-015A-354E-A138-861880F61DEB}">
           <x14:formula1>
             <xm:f>Sheet2!$I$8:$I$11</xm:f>
           </x14:formula1>
           <xm:sqref>C37 C54 C74 C95 C116 C136 K54 K74 K116 K95 K37 I95 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 K136 I116 I136</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{300FFD76-A928-344E-9C47-B16E38D729A1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C51EB698-1CFF-2C4C-B164-1650A0EF5D98}">
           <x14:formula1>
             <xm:f>Sheet2!$E$8:$E$11</xm:f>
           </x14:formula1>
           <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 K61:K62 G44:G45 I44:I45 E44:E45 K44:K45 C28 E61:E62 E81:E82 E102:E103 E117:E118 E128 E28 G61:G62 G81:G82 G102:G103 G117:G118 K28 G28 I61:I62 G128 I81:I82 I117:I118 I102:I103 I28 K81:K82 K117:K118 K128 K102:K103 I128</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96F1185A-9CBE-A248-B159-98BD86CFFF06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EAEF4FAD-3A71-9E4C-B3B8-BE33655BB378}">
           <x14:formula1>
             <xm:f>Sheet2!$J$8:$J$11</xm:f>
           </x14:formula1>
           <xm:sqref>C69 C89 C110 C120 C132 K89 K120 K110 K69 I132 E69 E89 E110 E120 E132 G69 G89 G110 G120 K132 I69 G132 I89 I120 I110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78FD689C-F053-F043-A03C-3E8E3F99305E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E975962-0C19-DD4D-82F7-1DE794303233}">
           <x14:formula1>
             <xm:f>Sheet2!$K$8:$K$11</xm:f>
           </x14:formula1>
           <xm:sqref>C90 C111 C121 I111 K111 K90 E90 E111 E121 G90 G111 G121 I90 K121 I121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B51C4797-3444-404A-9E4C-DBFFC9217932}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10DC5FD5-122D-B143-ABEF-F9B3154B1DA5}">
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>B8 N8 D8 F8 H8 J8 L8 P8 R8 T8 V8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BEF211F-B082-EE46-A3B1-CD07E6D36847}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{540D5731-BD67-CC4B-9E86-16B55512E2D9}">
           <x14:formula1>
             <xm:f>Sheet2!AA1:AA2</xm:f>
           </x14:formula1>
-          <xm:sqref>AB5:AC6</xm:sqref>
+          <xm:sqref>Y5:Z6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA35318-7EA2-274B-865C-ADF124950B07}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB9FFA6F-771F-B34C-BA4A-331CC20E8D3B}">
           <x14:formula1>
             <xm:f>Sheet2!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 K8 E8 G8 I8 M8 O8 Q8 S8 U8 W8:AA8</xm:sqref>
+          <xm:sqref>C8 W8 U8 S8 Q8 O8 M8 I8 G8 E8 K8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0DE78F9-4B83-8D42-B409-84B92A055DCE}">
+          <x14:formula1>
+            <xm:f>Sheet2!Z3:Z4</xm:f>
+          </x14:formula1>
+          <xm:sqref>X8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9566,8 +8965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9654,53 +9053,53 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>111</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>112</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>114</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>116</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>118</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
-        <v>108</v>
+      <c r="B12" s="6">
+        <v>45027</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
-        <v>109</v>
+      <c r="B13" s="6">
+        <v>42105</v>
       </c>
     </row>
   </sheetData>

--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Windsor_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Windsor_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DCA52-5457-B143-B359-A09A304642D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DAD7A-713A-7348-8D27-75BB370C62EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="157">
   <si>
     <t>County</t>
   </si>
@@ -476,6 +476,39 @@
   </si>
   <si>
     <t>Downtown Design Review Overlay</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>RUR</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>VMU</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>FLD</t>
+  </si>
+  <si>
+    <t>DDR</t>
   </si>
 </sst>
 </file>
@@ -539,8 +572,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1831,11 +1864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:Z1048576"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1868,47 +1901,69 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="M1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="O1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="Q1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="S1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="U1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
@@ -6920,28 +6975,28 @@
       <c r="A113" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -8965,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9090,7 +9145,7 @@
       <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45027</v>
       </c>
     </row>
@@ -9098,7 +9153,7 @@
       <c r="A13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>42105</v>
       </c>
     </row>
